--- a/data/input/absenteeism_data_14.xlsx
+++ b/data/input/absenteeism_data_14.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>190</v>
+        <v>39226</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabrielly Ribeiro</t>
+          <t>Antônio Viana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>9615.809999999999</v>
+        <v>6408.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98933</v>
+        <v>85845</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Vitor Hugo Gonçalves</t>
+          <t>Igor das Neves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>3737.68</v>
+        <v>11680.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7300</v>
+        <v>22465</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Evelyn Barros</t>
+          <t>Dra. Natália Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,216 +552,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>3442.63</v>
+        <v>8329.440000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3750</v>
+        <v>86164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Dias</t>
+          <t>Srta. Ana Laura Teixeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>3956.8</v>
+        <v>8868.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61629</v>
+        <v>31553</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietro Oliveira</t>
+          <t>Luna Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>12346.19</v>
+        <v>3517.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38013</v>
+        <v>80126</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucas Gabriel da Costa</t>
+          <t>Pietro Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>6444.36</v>
+        <v>8614.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93248</v>
+        <v>24460</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthony da Mota</t>
+          <t>Srta. Nina Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>3717.89</v>
+        <v>6598.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73383</v>
+        <v>95018</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Sophia Lima</t>
+          <t>Heitor das Neves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>6358.84</v>
+        <v>10865.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11548</v>
+        <v>34805</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Alves</t>
+          <t>Luiz Felipe Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>8803.75</v>
+        <v>10754.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9181</v>
+        <v>6595</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Fernandes</t>
+          <t>Vitor Jesus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>3246.43</v>
+        <v>5448.66</v>
       </c>
     </row>
   </sheetData>
